--- a/git_155nr.xlsx
+++ b/git_155nr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rames\OneDrive\Desktop\Mar-24th-2025-Devops weekday evening\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdobhalx\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7AACE4-77BB-4EF5-9C89-DF92E3778059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29189BC4-56A5-4A72-ACE2-3732B1A2F25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{7C588387-0EA0-486C-8670-DB29ADE0FD41}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="8" xr2:uid="{7C588387-0EA0-486C-8670-DB29ADE0FD41}"/>
   </bookViews>
   <sheets>
     <sheet name="important" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="branch" sheetId="6" r:id="rId6"/>
     <sheet name="normal d2d work" sheetId="7" r:id="rId7"/>
     <sheet name="merge conflict" sheetId="8" r:id="rId8"/>
+    <sheet name="stash flow" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="201">
   <si>
     <t>git</t>
   </si>
@@ -581,6 +582,69 @@
   </si>
   <si>
     <t>pull the latest code changes in main</t>
+  </si>
+  <si>
+    <t>pull the latest code changes in the main branch</t>
+  </si>
+  <si>
+    <t>git checkout -b x</t>
+  </si>
+  <si>
+    <t>create the side branch and shift to it</t>
+  </si>
+  <si>
+    <t>do the code changes</t>
+  </si>
+  <si>
+    <t>git checkout -b y</t>
+  </si>
+  <si>
+    <t>commit the code</t>
+  </si>
+  <si>
+    <t>git push origin y</t>
+  </si>
+  <si>
+    <t>create a PR</t>
+  </si>
+  <si>
+    <t>creates a PR#6</t>
+  </si>
+  <si>
+    <t>code review and code merge</t>
+  </si>
+  <si>
+    <t>merged</t>
+  </si>
+  <si>
+    <t>stashing the code</t>
+  </si>
+  <si>
+    <t>git stash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pull the latest code change in main </t>
+  </si>
+  <si>
+    <t>rebase the main branch code in the side branch</t>
+  </si>
+  <si>
+    <t>pop back the stashed code</t>
+  </si>
+  <si>
+    <t>git stash pop</t>
+  </si>
+  <si>
+    <t>v1+dy+dx</t>
+  </si>
+  <si>
+    <t>conflict displays</t>
+  </si>
+  <si>
+    <t>resolve the conflict</t>
+  </si>
+  <si>
+    <t>pull the latest code change  in main branch</t>
   </si>
 </sst>
 </file>
@@ -762,7 +826,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -818,6 +882,42 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -827,18 +927,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -866,41 +954,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -922,9 +986,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -962,7 +1026,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1068,7 +1132,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1210,7 +1274,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1224,19 +1288,19 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="3" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="3"/>
+    <col min="1" max="2" width="9.1796875" style="3"/>
+    <col min="3" max="3" width="18.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="19.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.81640625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="9.1796875" style="3"/>
     <col min="9" max="9" width="47" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="10" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C7" s="8" t="s">
         <v>1</v>
       </c>
@@ -1245,13 +1309,13 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="25"/>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="27" t="s">
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C8" s="32" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1260,78 +1324,78 @@
       <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="35" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="28"/>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C9" s="33"/>
       <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="F9" s="35"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="28"/>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C10" s="33"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="4"/>
-      <c r="H10" s="23"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="28"/>
-      <c r="D11" s="27" t="s">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C11" s="33"/>
+      <c r="D11" s="32" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E16" s="26" t="s">
+      <c r="F12" s="35"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="E16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E16:I16"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1345,20 +1409,20 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="19.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="3"/>
-    <col min="11" max="11" width="27.5703125" style="3" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="3"/>
-    <col min="14" max="14" width="41.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="7" width="12.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.1796875" style="3"/>
+    <col min="11" max="11" width="27.54296875" style="3" customWidth="1"/>
+    <col min="12" max="13" width="9.1796875" style="3"/>
+    <col min="14" max="14" width="41.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
@@ -1379,20 +1443,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="38" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="39" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -1402,18 +1466,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="38"/>
       <c r="J7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="10" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K7" s="39"/>
+    </row>
+    <row r="10" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E10" s="8" t="s">
         <v>20</v>
       </c>
@@ -1421,30 +1485,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E11" s="27" t="s">
+    <row r="11" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E11" s="32" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="28"/>
+    <row r="12" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E12" s="33"/>
       <c r="F12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="32"/>
-    </row>
-    <row r="13" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="29"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="E13" s="34"/>
       <c r="F13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="32"/>
+      <c r="G13" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1465,52 +1529,52 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="6"/>
-    <col min="6" max="6" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="5" width="9.1796875" style="6"/>
+    <col min="6" max="6" width="10.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="10" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="23" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="10" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F10" s="35" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -1520,8 +1584,8 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="23"/>
+    <row r="11" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F11" s="35"/>
       <c r="G11" s="5" t="s">
         <v>39</v>
       </c>
@@ -1529,14 +1593,14 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="23"/>
-      <c r="G12" s="23" t="s">
+    <row r="12" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F12" s="35"/>
+      <c r="G12" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1559,14 +1623,14 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>44</v>
       </c>
@@ -1580,7 +1644,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>42</v>
       </c>
@@ -1597,7 +1661,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>43</v>
       </c>
@@ -1614,11 +1678,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
         <v>46</v>
@@ -1634,7 +1698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>42</v>
       </c>
@@ -1652,68 +1716,68 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="37" t="s">
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="37" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1734,23 +1798,23 @@
   <dimension ref="B5:I34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="J4" sqref="J4"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.85546875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.81640625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.1796875" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E5" s="19" t="s">
         <v>90</v>
       </c>
@@ -1760,7 +1824,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1782,7 +1846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C7" s="11">
         <v>1</v>
       </c>
@@ -1797,7 +1861,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>7</v>
       </c>
@@ -1815,7 +1879,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
@@ -1833,7 +1897,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C10" s="17"/>
       <c r="D10" s="14"/>
       <c r="E10" s="22"/>
@@ -1842,7 +1906,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C11" s="11">
         <v>4</v>
       </c>
@@ -1857,7 +1921,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C12" s="11"/>
       <c r="D12" s="10" t="s">
         <v>68</v>
@@ -1868,7 +1932,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C13" s="11"/>
       <c r="D13" s="10" t="s">
         <v>69</v>
@@ -1879,7 +1943,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C14" s="11"/>
       <c r="D14" s="10" t="s">
         <v>70</v>
@@ -1892,7 +1956,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C15" s="17"/>
       <c r="D15" s="14"/>
       <c r="E15" s="22"/>
@@ -1901,7 +1965,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C16" s="11">
         <v>5</v>
       </c>
@@ -1914,7 +1978,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C17" s="11"/>
       <c r="D17" s="10" t="s">
         <v>73</v>
@@ -1927,7 +1991,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="22"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C18" s="17"/>
       <c r="D18" s="14"/>
       <c r="E18" s="22"/>
@@ -1936,7 +2000,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="22"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C19" s="11">
         <v>6</v>
       </c>
@@ -1951,7 +2015,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C20" s="17"/>
       <c r="D20" s="14"/>
       <c r="E20" s="22"/>
@@ -1960,7 +2024,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C21" s="11">
         <v>7</v>
       </c>
@@ -1975,7 +2039,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="22"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C22" s="11"/>
       <c r="D22" s="10"/>
       <c r="E22" s="21" t="s">
@@ -1986,7 +2050,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="22"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C23" s="17"/>
       <c r="D23" s="14"/>
       <c r="E23" s="22"/>
@@ -1995,7 +2059,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="22"/>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C24" s="11">
         <v>8</v>
       </c>
@@ -2010,7 +2074,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C25" s="11"/>
       <c r="D25" s="10" t="s">
         <v>81</v>
@@ -2021,7 +2085,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="22"/>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C26" s="11"/>
       <c r="D26" s="10" t="s">
         <v>82</v>
@@ -2032,7 +2096,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="22"/>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C27" s="11">
         <v>9</v>
       </c>
@@ -2047,7 +2111,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="22"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C28" s="11"/>
       <c r="D28" s="10" t="s">
         <v>84</v>
@@ -2058,7 +2122,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C29" s="11">
         <v>10</v>
       </c>
@@ -2073,7 +2137,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C30" s="11"/>
       <c r="D30" s="10" t="s">
         <v>87</v>
@@ -2084,7 +2148,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C31" s="17"/>
       <c r="D31" s="14"/>
       <c r="E31" s="22"/>
@@ -2093,7 +2157,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:9" ht="29" x14ac:dyDescent="0.35">
       <c r="C32" s="11">
         <v>11</v>
       </c>
@@ -2108,7 +2172,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C33" s="11"/>
       <c r="D33" s="10" t="s">
         <v>92</v>
@@ -2119,7 +2183,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="21"/>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C34" s="17"/>
       <c r="D34" s="14"/>
       <c r="E34" s="22"/>
@@ -2137,20 +2201,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC49CB4-A620-4EC4-A773-5C8F9EA21AF1}">
   <dimension ref="C4:F11"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="B7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="28.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="3" width="9.1796875" style="3"/>
+    <col min="4" max="4" width="28.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D4" s="3" t="s">
         <v>94</v>
       </c>
@@ -2158,8 +2222,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="43" t="s">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C5" s="47" t="s">
         <v>116</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2172,8 +2236,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="43"/>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C6" s="47"/>
       <c r="D6" s="3" t="s">
         <v>99</v>
       </c>
@@ -2184,7 +2248,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C9" s="3" t="s">
         <v>117</v>
       </c>
@@ -2198,7 +2262,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D11" s="3" t="s">
         <v>105</v>
       </c>
@@ -2221,56 +2285,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE9C626-2ECD-4F71-919B-4F11650623BC}">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="8" ySplit="4" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="I4" sqref="I4"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="40.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.54296875" customWidth="1"/>
+    <col min="3" max="3" width="40.26953125" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="31.81640625" customWidth="1"/>
+    <col min="7" max="7" width="34.26953125" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="40" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D5" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="40" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D6" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="42"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
         <v>62</v>
       </c>
@@ -2283,7 +2348,7 @@
       <c r="E7" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="44"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="12" t="s">
         <v>110</v>
       </c>
@@ -2291,14 +2356,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="10">
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="11" t="s">
         <v>114</v>
       </c>
       <c r="E8" s="10"/>
@@ -2306,7 +2371,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -2315,37 +2380,37 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="10">
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="10"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="10">
         <v>3</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="10"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -2354,22 +2419,22 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="10">
         <v>4</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="14"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -2378,22 +2443,22 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="10">
         <v>5</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="14"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -2402,33 +2467,33 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="10">
         <v>6</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="14"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -2437,22 +2502,22 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="10">
         <v>7</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="14"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
         <v>84</v>
@@ -2463,7 +2528,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -2472,7 +2537,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="10">
         <v>8</v>
       </c>
@@ -2489,7 +2554,7 @@
       </c>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
         <v>126</v>
@@ -2502,7 +2567,7 @@
       </c>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -2511,7 +2576,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="10">
         <v>9</v>
       </c>
@@ -2526,7 +2591,7 @@
       </c>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="10">
         <v>10</v>
       </c>
@@ -2541,39 +2606,39 @@
       </c>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="48">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B28" s="10">
         <v>11</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="10" t="s">
         <v>133</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="14"/>
-      <c r="G28" s="48" t="s">
+      <c r="G28" s="10" t="s">
         <v>134</v>
       </c>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="48">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="10">
         <v>12</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="10" t="s">
         <v>135</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="10" t="s">
         <v>136</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -2582,11 +2647,11 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="48">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="10">
         <v>13</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="10" t="s">
         <v>113</v>
       </c>
       <c r="D31" s="10" t="s">
@@ -2597,7 +2662,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -2618,118 +2683,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300440E5-6B60-4567-B568-74C7CE02D803}">
   <dimension ref="D1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="12" ySplit="6" topLeftCell="O9" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="C3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="12" ySplit="6" topLeftCell="O21" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
       <selection pane="topRight" activeCell="O3" sqref="O3"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="26.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" customWidth="1"/>
+    <col min="13" max="13" width="26.453125" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:14" x14ac:dyDescent="0.35">
       <c r="E1" s="18"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="39"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="39"/>
+      <c r="L1" s="23"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:14" x14ac:dyDescent="0.35">
       <c r="E2" s="18"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="39"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="39"/>
+      <c r="L2" s="23"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:14" x14ac:dyDescent="0.35">
       <c r="E3" s="18"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="39"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="39"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:14" x14ac:dyDescent="0.35">
       <c r="E4" s="18"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="39"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="39"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:14" x14ac:dyDescent="0.35">
       <c r="E5" s="18"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="39"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="39"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D6" s="12"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="38" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="38" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="38" t="s">
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="N6" s="38"/>
-    </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="46"/>
+    </row>
+    <row r="7" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="27" t="s">
         <v>112</v>
       </c>
       <c r="F7" s="49" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="50"/>
-      <c r="H7" s="44"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="12" t="s">
         <v>138</v>
       </c>
@@ -2739,22 +2804,22 @@
       <c r="K7" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="L7" s="44"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="49" t="s">
         <v>19</v>
       </c>
       <c r="N7" s="50"/>
     </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D8" s="12"/>
-      <c r="E8" s="51"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="12" t="s">
         <v>109</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="44"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="12" t="s">
         <v>110</v>
       </c>
@@ -2764,7 +2829,7 @@
       <c r="K8" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="L8" s="44"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="12" t="s">
         <v>110</v>
       </c>
@@ -2772,7 +2837,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D9" s="14"/>
       <c r="E9" s="22"/>
       <c r="F9" s="17"/>
@@ -2787,7 +2852,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="4:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D10" s="10">
         <v>1</v>
       </c>
@@ -2808,9 +2873,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="4:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D11" s="17"/>
-      <c r="E11" s="52"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="17" t="s">
         <v>141</v>
       </c>
@@ -2827,7 +2892,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D12" s="10">
         <v>2</v>
       </c>
@@ -2848,9 +2913,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="4:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D13" s="17"/>
-      <c r="E13" s="52"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="17" t="s">
         <v>146</v>
       </c>
@@ -2871,7 +2936,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D14" s="10">
         <v>3</v>
       </c>
@@ -2892,7 +2957,7 @@
       </c>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D15" s="14"/>
       <c r="E15" s="22"/>
       <c r="F15" s="17"/>
@@ -2905,7 +2970,7 @@
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D16" s="10">
         <v>4</v>
       </c>
@@ -2926,7 +2991,7 @@
       </c>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D17" s="10">
         <v>5</v>
       </c>
@@ -2947,7 +3012,7 @@
       </c>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D18" s="10">
         <v>6</v>
       </c>
@@ -2968,7 +3033,7 @@
       </c>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D19" s="14"/>
       <c r="E19" s="22"/>
       <c r="F19" s="17" t="s">
@@ -2995,7 +3060,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D20" s="10">
         <v>7</v>
       </c>
@@ -3016,7 +3081,7 @@
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D21" s="14"/>
       <c r="E21" s="22"/>
       <c r="F21" s="17"/>
@@ -3029,7 +3094,7 @@
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D22" s="10">
         <v>8</v>
       </c>
@@ -3050,7 +3115,7 @@
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
     </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D23" s="14"/>
       <c r="E23" s="22"/>
       <c r="F23" s="17"/>
@@ -3067,7 +3132,7 @@
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D24" s="10"/>
       <c r="E24" s="21"/>
       <c r="F24" s="11"/>
@@ -3082,7 +3147,7 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D25" s="14"/>
       <c r="E25" s="22" t="s">
         <v>165</v>
@@ -3105,7 +3170,7 @@
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="4:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D26" s="10">
         <v>9</v>
       </c>
@@ -3124,7 +3189,7 @@
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D27" s="14"/>
       <c r="E27" s="22"/>
       <c r="F27" s="17" t="s">
@@ -3145,7 +3210,7 @@
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="4:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:14" ht="29" x14ac:dyDescent="0.35">
       <c r="D28" s="10">
         <v>10</v>
       </c>
@@ -3164,7 +3229,7 @@
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
     </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D29" s="14"/>
       <c r="E29" s="22"/>
       <c r="F29" s="17" t="s">
@@ -3185,7 +3250,7 @@
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D30" s="10"/>
       <c r="E30" s="21"/>
       <c r="F30" s="11"/>
@@ -3200,7 +3265,7 @@
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
     </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D31" s="14"/>
       <c r="E31" s="22"/>
       <c r="F31" s="17"/>
@@ -3213,7 +3278,7 @@
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="4:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:14" ht="29" x14ac:dyDescent="0.35">
       <c r="D32" s="10">
         <v>11</v>
       </c>
@@ -3232,7 +3297,7 @@
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D33" s="10">
         <v>12</v>
       </c>
@@ -3251,7 +3316,7 @@
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
     </row>
-    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D34" s="10">
         <v>13</v>
       </c>
@@ -3270,7 +3335,7 @@
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D35" s="10"/>
       <c r="E35" s="21" t="s">
         <v>175</v>
@@ -3285,7 +3350,7 @@
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
     </row>
-    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D36" s="14"/>
       <c r="E36" s="22"/>
       <c r="F36" s="17" t="s">
@@ -3306,8 +3371,8 @@
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="4:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="D37" s="48">
+    <row r="37" spans="4:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="D37" s="10">
         <v>14</v>
       </c>
       <c r="E37" s="21" t="s">
@@ -3325,7 +3390,7 @@
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
     </row>
-    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D38" s="14"/>
       <c r="E38" s="22"/>
       <c r="F38" s="17" t="s">
@@ -3352,7 +3417,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D39" s="10">
         <v>15</v>
       </c>
@@ -3373,7 +3438,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D40" s="14"/>
       <c r="E40" s="22"/>
       <c r="F40" s="17" t="s">
@@ -3402,4 +3467,811 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C29550-C374-464E-A149-E50FE63AA1E3}">
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="11" ySplit="6" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" customWidth="1"/>
+    <col min="10" max="10" width="26.453125" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B1" s="18"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B2" s="18"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="18"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="18"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="18"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="46"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="50"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>3</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>4</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>5</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>6</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>7</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>8</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>9</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>10</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>11</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="10">
+        <v>12</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="10">
+        <v>13</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="10">
+        <v>14</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="10">
+        <v>15</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="10">
+        <v>16</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="10">
+        <v>17</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="10">
+        <v>18</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="H43" s="28"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="10">
+        <v>19</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="H45" s="28"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="J6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>